--- a/server/public/Excel/15.xlsx
+++ b/server/public/Excel/15.xlsx
@@ -11,17 +11,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="273">
   <si>
     <t>ลำดับ</t>
   </si>
   <si>
+    <t>รหัสพนักงาน</t>
+  </si>
+  <si>
     <t>ชื่อ</t>
   </si>
   <si>
     <t>นามสกุล</t>
   </si>
   <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
     <t>สายงาน</t>
   </si>
   <si>
@@ -37,6 +46,21 @@
     <t>เบอร์โทร</t>
   </si>
   <si>
+    <t>เลขสแกนนิ้ว</t>
+  </si>
+  <si>
+    <t>วันเกิด</t>
+  </si>
+  <si>
+    <t>พนักงาน</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>VCB62360</t>
+  </si>
+  <si>
     <t>นางสาวลลิตา</t>
   </si>
   <si>
@@ -52,15 +76,747 @@
     <t>0863494142</t>
   </si>
   <si>
+    <t>2525-11-03</t>
+  </si>
+  <si>
+    <t>รายเดือน</t>
+  </si>
+  <si>
+    <t>ทำงานอยู่</t>
+  </si>
+  <si>
+    <t>VCB65016</t>
+  </si>
+  <si>
+    <t>น.ส.จิติมา</t>
+  </si>
+  <si>
+    <t>เรืองศรี</t>
+  </si>
+  <si>
+    <t>สายงานทรัพยากรบุคคลและธุรการ</t>
+  </si>
+  <si>
+    <t>ฝ่ายธุรการ</t>
+  </si>
+  <si>
+    <t>รอแก้ไข Admin</t>
+  </si>
+  <si>
+    <t>096-3027190</t>
+  </si>
+  <si>
+    <t>2521-04-27</t>
+  </si>
+  <si>
+    <t>VCB65010</t>
+  </si>
+  <si>
+    <t>นายสานนท์</t>
+  </si>
+  <si>
+    <t>สำเภาน้อย</t>
+  </si>
+  <si>
+    <t>080-7818151</t>
+  </si>
+  <si>
+    <t>2513-11-27</t>
+  </si>
+  <si>
+    <t>VCB64221</t>
+  </si>
+  <si>
+    <t>นายมานพ</t>
+  </si>
+  <si>
+    <t>เพลิงน้อย</t>
+  </si>
+  <si>
+    <t>098-8851993</t>
+  </si>
+  <si>
+    <t>2518-03-09</t>
+  </si>
+  <si>
+    <t>VCB64084</t>
+  </si>
+  <si>
+    <t>น.ส.เอื้องทอง</t>
+  </si>
+  <si>
+    <t>สนธิ</t>
+  </si>
+  <si>
+    <t>2513-05-08</t>
+  </si>
+  <si>
+    <t>VCB64036</t>
+  </si>
+  <si>
+    <t>นายเสน่ห์</t>
+  </si>
+  <si>
+    <t>ยุพาพิน</t>
+  </si>
+  <si>
+    <t>2521-06-23</t>
+  </si>
+  <si>
+    <t>VCB63135</t>
+  </si>
+  <si>
+    <t>นายรชฏ</t>
+  </si>
+  <si>
+    <t>วรรณธนาสิน</t>
+  </si>
+  <si>
+    <t>2512-07-07</t>
+  </si>
+  <si>
+    <t>VCB55030</t>
+  </si>
+  <si>
+    <t>นายSaw</t>
+  </si>
+  <si>
+    <t>Ywet- War</t>
+  </si>
+  <si>
+    <t>2531-01-01</t>
+  </si>
+  <si>
+    <t>VCB65041</t>
+  </si>
+  <si>
+    <t>น.ส.สมคิด</t>
+  </si>
+  <si>
+    <t>อรรถวิชัย</t>
+  </si>
+  <si>
+    <t>064-4750891</t>
+  </si>
+  <si>
+    <t>2508-02-01</t>
+  </si>
+  <si>
+    <t>VCB65025</t>
+  </si>
+  <si>
+    <t>นางยุพิน</t>
+  </si>
+  <si>
+    <t>สีนาก</t>
+  </si>
+  <si>
+    <t>096-0491538</t>
+  </si>
+  <si>
+    <t>2512-11-24</t>
+  </si>
+  <si>
+    <t>VCB65004</t>
+  </si>
+  <si>
+    <t>นายดนัย</t>
+  </si>
+  <si>
+    <t>แผ่นทอง</t>
+  </si>
+  <si>
+    <t>2525-03-24</t>
+  </si>
+  <si>
+    <t>VCB64212</t>
+  </si>
+  <si>
+    <t>น.ส.สายตา</t>
+  </si>
+  <si>
+    <t>ไชยนาน</t>
+  </si>
+  <si>
+    <t>062-491-8806</t>
+  </si>
+  <si>
+    <t>2520-03-14</t>
+  </si>
+  <si>
+    <t>VCB64205</t>
+  </si>
+  <si>
+    <t>น.ส.นิตยา</t>
+  </si>
+  <si>
+    <t>แย้มเหรียญ</t>
+  </si>
+  <si>
+    <t>2522-07-09</t>
+  </si>
+  <si>
+    <t>VCB64103</t>
+  </si>
+  <si>
+    <t>น.ส.รจนา</t>
+  </si>
+  <si>
+    <t>บุญประกอบ</t>
+  </si>
+  <si>
+    <t>2521-01-14</t>
+  </si>
+  <si>
+    <t>VCB64102</t>
+  </si>
+  <si>
+    <t>น.ส.ประมวล</t>
+  </si>
+  <si>
+    <t>ปานดำ</t>
+  </si>
+  <si>
+    <t>2510-04-02</t>
+  </si>
+  <si>
+    <t>VCB64100</t>
+  </si>
+  <si>
+    <t>นายนฤชิต</t>
+  </si>
+  <si>
+    <t>หล้าแหล่ง</t>
+  </si>
+  <si>
+    <t>2525-08-24</t>
+  </si>
+  <si>
+    <t>VCB64074</t>
+  </si>
+  <si>
+    <t>น.ส.บุญธรรม</t>
+  </si>
+  <si>
+    <t>แสงทอง</t>
+  </si>
+  <si>
+    <t>2506-07-05</t>
+  </si>
+  <si>
+    <t>VCB64068</t>
+  </si>
+  <si>
+    <t>นายธานี</t>
+  </si>
+  <si>
+    <t>มัณยานนท์</t>
+  </si>
+  <si>
+    <t>2513-06-30</t>
+  </si>
+  <si>
+    <t>VCB64011</t>
+  </si>
+  <si>
+    <t>นางตรีทิพย์</t>
+  </si>
+  <si>
+    <t>ลอยมา</t>
+  </si>
+  <si>
+    <t>2512-10-25</t>
+  </si>
+  <si>
+    <t>VCB63233</t>
+  </si>
+  <si>
+    <t>น.ส.ดารุณี</t>
+  </si>
+  <si>
+    <t>ลอมาเละ</t>
+  </si>
+  <si>
+    <t>2514-05-23</t>
+  </si>
+  <si>
+    <t>VCB63192</t>
+  </si>
+  <si>
+    <t>นายวันชัย</t>
+  </si>
+  <si>
+    <t>วันแอเลาะ</t>
+  </si>
+  <si>
+    <t>2521-10-18</t>
+  </si>
+  <si>
+    <t>VCB63017</t>
+  </si>
+  <si>
+    <t>นายอนุสรณ์</t>
+  </si>
+  <si>
+    <t>ทรงงาม</t>
+  </si>
+  <si>
+    <t>2533-06-10</t>
+  </si>
+  <si>
+    <t>VCB60093</t>
+  </si>
+  <si>
+    <t>นายสมชาติ</t>
+  </si>
+  <si>
+    <t>เต๊ะเบ๊ะบ๋า</t>
+  </si>
+  <si>
+    <t>2521-11-03</t>
+  </si>
+  <si>
+    <t>VCB65049</t>
+  </si>
+  <si>
+    <t>น.ส.อมรรัตน์</t>
+  </si>
+  <si>
+    <t>ชมภู</t>
+  </si>
+  <si>
+    <t>ฝ่ายทรัพยากรบุคคล</t>
+  </si>
+  <si>
+    <t>รอแก้ไข(HRM)</t>
+  </si>
+  <si>
+    <t>hr@veninecable.com</t>
+  </si>
+  <si>
+    <t>091-4184076</t>
+  </si>
+  <si>
+    <t>2535-04-21</t>
+  </si>
+  <si>
+    <t>VCB64193</t>
+  </si>
+  <si>
+    <t>น.ส.มัลลิกา</t>
+  </si>
+  <si>
+    <t>คงคาชื่น</t>
+  </si>
+  <si>
+    <t>munlika_k@veninecable.com</t>
+  </si>
+  <si>
+    <t>083-5822232</t>
+  </si>
+  <si>
+    <t>2538-11-03</t>
+  </si>
+  <si>
+    <t>VCB62259</t>
+  </si>
+  <si>
+    <t>นางสาวสมหญิง</t>
+  </si>
+  <si>
+    <t>มาลีเทศ</t>
+  </si>
+  <si>
+    <t>Somying_mal@veninecable.com</t>
+  </si>
+  <si>
+    <t>094-410-4434</t>
+  </si>
+  <si>
+    <t>2536-09-28</t>
+  </si>
+  <si>
+    <t>VCB62123</t>
+  </si>
+  <si>
+    <t>นางสาวสุวรรณี</t>
+  </si>
+  <si>
+    <t>สุดทะสน</t>
+  </si>
+  <si>
+    <t>suwnnee_su@veninecable.com</t>
+  </si>
+  <si>
+    <t>085-9133489</t>
+  </si>
+  <si>
+    <t>2533-10-26</t>
+  </si>
+  <si>
+    <t>VCB60099</t>
+  </si>
+  <si>
+    <t>นางสาววรัญญา</t>
+  </si>
+  <si>
+    <t>เนื่องสนธิ</t>
+  </si>
+  <si>
+    <t>waranya_neu@veninecable.com</t>
+  </si>
+  <si>
+    <t>095-004-9533</t>
+  </si>
+  <si>
+    <t>2532-09-24</t>
+  </si>
+  <si>
+    <t>VCB64243</t>
+  </si>
+  <si>
+    <t>นายปิยชน</t>
+  </si>
+  <si>
+    <t>ระฆังเพ็ชร</t>
+  </si>
+  <si>
+    <t>piyachon_r@veninecable.com</t>
+  </si>
+  <si>
+    <t>095-6411426</t>
+  </si>
+  <si>
+    <t>2538-07-11</t>
+  </si>
+  <si>
+    <t>VCB64223</t>
+  </si>
+  <si>
+    <t>น.ส.วารุณี</t>
+  </si>
+  <si>
+    <t>ชวนนอก</t>
+  </si>
+  <si>
+    <t>Warunee_C@veninecable.com</t>
+  </si>
+  <si>
+    <t>2533-06-22</t>
+  </si>
+  <si>
+    <t>VCB63211</t>
+  </si>
+  <si>
+    <t>น.ส.ศิณี</t>
+  </si>
+  <si>
+    <t>สำเริง</t>
+  </si>
+  <si>
+    <t>2540-11-19</t>
+  </si>
+  <si>
+    <t>VCB61212</t>
+  </si>
+  <si>
+    <t>นางสาวปวีณา</t>
+  </si>
+  <si>
+    <t>ศรีอนันท์</t>
+  </si>
+  <si>
+    <t>085-3957887</t>
+  </si>
+  <si>
+    <t>2536-11-22</t>
+  </si>
+  <si>
+    <t>VCP61064</t>
+  </si>
+  <si>
+    <t>นางสาวสุนันท์</t>
+  </si>
+  <si>
+    <t>แสงสว่าง</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>610263</t>
+  </si>
+  <si>
+    <t>2523-05-19</t>
+  </si>
+  <si>
+    <t>VCP53062</t>
+  </si>
+  <si>
+    <t>นายไพบูลย์</t>
+  </si>
+  <si>
+    <t>เรืองปราชญ์</t>
+  </si>
+  <si>
+    <t>130062</t>
+  </si>
+  <si>
+    <t>2504-07-19</t>
+  </si>
+  <si>
+    <t>VCP62039</t>
+  </si>
+  <si>
+    <t>นายอานนท์</t>
+  </si>
+  <si>
+    <t>ปรีชานุกูล</t>
+  </si>
+  <si>
+    <t>620250</t>
+  </si>
+  <si>
+    <t>2520-10-09</t>
+  </si>
+  <si>
+    <t>VCP62002</t>
+  </si>
+  <si>
+    <t>นายราเชนทร์</t>
+  </si>
+  <si>
+    <t>ม่วงฉ่ำ</t>
+  </si>
+  <si>
+    <t>620010</t>
+  </si>
+  <si>
+    <t>2512-02-14</t>
+  </si>
+  <si>
+    <t>VCP61059</t>
+  </si>
+  <si>
+    <t>นายวิโรจน์</t>
+  </si>
+  <si>
+    <t>เนืองนิด</t>
+  </si>
+  <si>
+    <t>610252</t>
+  </si>
+  <si>
+    <t>2513-01-24</t>
+  </si>
+  <si>
+    <t>VCP59273</t>
+  </si>
+  <si>
+    <t>นายปัญญา</t>
+  </si>
+  <si>
+    <t>มังกรวงค์</t>
+  </si>
+  <si>
+    <t>190281</t>
+  </si>
+  <si>
+    <t>2514-09-01</t>
+  </si>
+  <si>
+    <t>VCP61010</t>
+  </si>
+  <si>
+    <t>นางศิริรัตน์</t>
+  </si>
+  <si>
+    <t>ไกรศร</t>
+  </si>
+  <si>
+    <t>610017</t>
+  </si>
+  <si>
+    <t>2510-10-10</t>
+  </si>
+  <si>
+    <t>VCP60002</t>
+  </si>
+  <si>
+    <t>นางสมปอง</t>
+  </si>
+  <si>
+    <t>ตะพาบน้ำ</t>
+  </si>
+  <si>
+    <t>190300</t>
+  </si>
+  <si>
+    <t>2518-03-11</t>
+  </si>
+  <si>
+    <t>VCP57141</t>
+  </si>
+  <si>
+    <t>นางวันทนา</t>
+  </si>
+  <si>
+    <t>โพธิ์ศรี</t>
+  </si>
+  <si>
+    <t>170141</t>
+  </si>
+  <si>
+    <t>2515-02-05</t>
+  </si>
+  <si>
+    <t>VCP61013</t>
+  </si>
+  <si>
+    <t>นางสาววรรณนิสา</t>
+  </si>
+  <si>
+    <t>เพ่งพินิจ</t>
+  </si>
+  <si>
+    <t>610033</t>
+  </si>
+  <si>
+    <t>2534-09-30</t>
+  </si>
+  <si>
+    <t>VCP60026</t>
+  </si>
+  <si>
+    <t>นายดิสพงษ์</t>
+  </si>
+  <si>
+    <t>ภิรมย์ทอง</t>
+  </si>
+  <si>
+    <t>360078</t>
+  </si>
+  <si>
+    <t>2519-11-11</t>
+  </si>
+  <si>
+    <t>VCP55101</t>
+  </si>
+  <si>
+    <t>นางสาวพีรยา</t>
+  </si>
+  <si>
+    <t>รักสุทธี</t>
+  </si>
+  <si>
+    <t>300011</t>
+  </si>
+  <si>
+    <t>2505-09-08</t>
+  </si>
+  <si>
+    <t>VCP54078</t>
+  </si>
+  <si>
+    <t>นายสุภัทร์</t>
+  </si>
+  <si>
+    <t>ชมภู่</t>
+  </si>
+  <si>
+    <t>140078</t>
+  </si>
+  <si>
+    <t>2522-01-01</t>
+  </si>
+  <si>
+    <t>VCP52049</t>
+  </si>
+  <si>
+    <t>นางสาวนิ่มนวล</t>
+  </si>
+  <si>
+    <t>ต้นกันยา</t>
+  </si>
+  <si>
+    <t>120049</t>
+  </si>
+  <si>
+    <t>2524-12-17</t>
+  </si>
+  <si>
+    <t>VCP28002</t>
+  </si>
+  <si>
+    <t>นายเชนย์</t>
+  </si>
+  <si>
+    <t>โพชะกะ</t>
+  </si>
+  <si>
+    <t>180002</t>
+  </si>
+  <si>
+    <t>2505-02-20</t>
+  </si>
+  <si>
+    <t>VCP23001</t>
+  </si>
+  <si>
+    <t>นางหนูแดง</t>
+  </si>
+  <si>
+    <t>เจียมวิเศษ</t>
+  </si>
+  <si>
+    <t>130001</t>
+  </si>
+  <si>
+    <t>2496-07-07</t>
+  </si>
+  <si>
+    <t>VCP59234</t>
+  </si>
+  <si>
+    <t>นางสาวศิริพร</t>
+  </si>
+  <si>
+    <t>สราญชื่น</t>
+  </si>
+  <si>
+    <t>Siriporn_s@veninecable.com</t>
+  </si>
+  <si>
+    <t>090-9840835</t>
+  </si>
+  <si>
+    <t>190233</t>
+  </si>
+  <si>
+    <t>2534-09-28</t>
+  </si>
+  <si>
+    <t>VCP54076</t>
+  </si>
+  <si>
+    <t>นางวิชุดา</t>
+  </si>
+  <si>
+    <t>พรสวัสดิ์</t>
+  </si>
+  <si>
+    <t>140076</t>
+  </si>
+  <si>
+    <t>2534-02-19</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
     <t>ADMIN_HR</t>
   </si>
   <si>
-    <t>สายงานทรัพยากรบุคคลและธุรการ</t>
-  </si>
-  <si>
-    <t>ฝ่ายทรัพยากรบุคคล</t>
-  </si>
-  <si>
     <t>ผู้จัดการ</t>
   </si>
   <si>
@@ -68,6 +824,12 @@
   </si>
   <si>
     <t>00</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
   </si>
 </sst>
 </file>
@@ -444,17 +1206,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O52"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="20" customWidth="1"/>
+    <col min="2" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="8" max="9" width="30" customWidth="1"/>
+    <col min="10" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,54 +1241,1892 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" t="s">
+        <v>128</v>
+      </c>
+      <c r="N25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" t="s">
+        <v>134</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" t="s">
+        <v>146</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" t="s">
+        <v>151</v>
+      </c>
+      <c r="M29" t="s">
+        <v>152</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" t="s">
+        <v>157</v>
+      </c>
+      <c r="M30" t="s">
+        <v>158</v>
+      </c>
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>162</v>
+      </c>
+      <c r="M31" t="s">
+        <v>163</v>
+      </c>
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" t="s">
+        <v>167</v>
+      </c>
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" t="s">
+        <v>172</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" t="s">
+        <v>176</v>
+      </c>
+      <c r="L34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M34" t="s">
+        <v>178</v>
+      </c>
+      <c r="N34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35" t="s">
+        <v>176</v>
+      </c>
+      <c r="L35" t="s">
+        <v>182</v>
+      </c>
+      <c r="M35" t="s">
+        <v>183</v>
+      </c>
+      <c r="N35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" t="s">
+        <v>176</v>
+      </c>
+      <c r="L36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37" t="s">
+        <v>192</v>
+      </c>
+      <c r="M37" t="s">
+        <v>193</v>
+      </c>
+      <c r="N37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" t="s">
+        <v>176</v>
+      </c>
+      <c r="L38" t="s">
+        <v>197</v>
+      </c>
+      <c r="M38" t="s">
+        <v>198</v>
+      </c>
+      <c r="N38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" t="s">
+        <v>176</v>
+      </c>
+      <c r="L39" t="s">
+        <v>202</v>
+      </c>
+      <c r="M39" t="s">
+        <v>203</v>
+      </c>
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>176</v>
+      </c>
+      <c r="K40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L40" t="s">
+        <v>207</v>
+      </c>
+      <c r="M40" t="s">
+        <v>208</v>
+      </c>
+      <c r="N40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>176</v>
+      </c>
+      <c r="K41" t="s">
+        <v>176</v>
+      </c>
+      <c r="L41" t="s">
+        <v>212</v>
+      </c>
+      <c r="M41" t="s">
+        <v>213</v>
+      </c>
+      <c r="N41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>176</v>
+      </c>
+      <c r="K42" t="s">
+        <v>176</v>
+      </c>
+      <c r="L42" t="s">
+        <v>217</v>
+      </c>
+      <c r="M42" t="s">
+        <v>218</v>
+      </c>
+      <c r="N42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>176</v>
+      </c>
+      <c r="K43" t="s">
+        <v>176</v>
+      </c>
+      <c r="L43" t="s">
+        <v>222</v>
+      </c>
+      <c r="M43" t="s">
+        <v>223</v>
+      </c>
+      <c r="N43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" t="s">
+        <v>176</v>
+      </c>
+      <c r="L44" t="s">
+        <v>227</v>
+      </c>
+      <c r="M44" t="s">
+        <v>228</v>
+      </c>
+      <c r="N44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>176</v>
+      </c>
+      <c r="K45" t="s">
+        <v>176</v>
+      </c>
+      <c r="L45" t="s">
+        <v>232</v>
+      </c>
+      <c r="M45" t="s">
+        <v>233</v>
+      </c>
+      <c r="N45" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" t="s">
+        <v>236</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>176</v>
+      </c>
+      <c r="K46" t="s">
+        <v>176</v>
+      </c>
+      <c r="L46" t="s">
+        <v>237</v>
+      </c>
+      <c r="M46" t="s">
+        <v>238</v>
+      </c>
+      <c r="N46" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
+        <v>176</v>
+      </c>
+      <c r="K47" t="s">
+        <v>176</v>
+      </c>
+      <c r="L47" t="s">
+        <v>242</v>
+      </c>
+      <c r="M47" t="s">
+        <v>243</v>
+      </c>
+      <c r="N47" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" t="s">
+        <v>176</v>
+      </c>
+      <c r="L48" t="s">
+        <v>247</v>
+      </c>
+      <c r="M48" t="s">
+        <v>248</v>
+      </c>
+      <c r="N48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="s">
+        <v>176</v>
+      </c>
+      <c r="K49" t="s">
+        <v>176</v>
+      </c>
+      <c r="L49" t="s">
+        <v>252</v>
+      </c>
+      <c r="M49" t="s">
+        <v>253</v>
+      </c>
+      <c r="N49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" t="s">
+        <v>256</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J50" t="s">
+        <v>257</v>
+      </c>
+      <c r="K50" t="s">
+        <v>258</v>
+      </c>
+      <c r="L50" t="s">
+        <v>259</v>
+      </c>
+      <c r="M50" t="s">
+        <v>260</v>
+      </c>
+      <c r="N50" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" t="s">
+        <v>176</v>
+      </c>
+      <c r="K51" t="s">
+        <v>176</v>
+      </c>
+      <c r="L51" t="s">
+        <v>264</v>
+      </c>
+      <c r="M51" t="s">
+        <v>265</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" t="s">
+        <v>267</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" t="s">
+        <v>268</v>
+      </c>
+      <c r="J52" t="s">
+        <v>269</v>
+      </c>
+      <c r="K52" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" t="s">
+        <v>271</v>
+      </c>
+      <c r="M52" t="s">
+        <v>272</v>
+      </c>
+      <c r="N52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
